--- a/data/ps_il.xlsx
+++ b/data/ps_il.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyOnlineCourses\ML_Projects\palestine_israel_conflict\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyOnlineCourses\ML_Projects\Palestine-Israel-Conflict\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E577"/>
+  <dimension ref="A1:E585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>7</v>
+        <v>607</v>
       </c>
       <c r="D266">
         <v>11</v>
@@ -5160,13 +5160,13 @@
         <v>2023</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E278" t="s">
         <v>5</v>
@@ -5177,13 +5177,13 @@
         <v>2023</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E279" t="s">
         <v>5</v>
@@ -5194,13 +5194,13 @@
         <v>2023</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C280">
-        <v>25408</v>
+        <v>640</v>
       </c>
       <c r="D280">
-        <v>11800</v>
+        <v>25</v>
       </c>
       <c r="E280" t="s">
         <v>5</v>
@@ -5211,13 +5211,13 @@
         <v>2023</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C281">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D281">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E281" t="s">
         <v>5</v>
@@ -5228,13 +5228,13 @@
         <v>2023</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C282">
-        <v>938</v>
+        <v>1488</v>
       </c>
       <c r="D282">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E282" t="s">
         <v>5</v>
@@ -5245,13 +5245,13 @@
         <v>2023</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C283">
-        <v>829</v>
+        <v>1440</v>
       </c>
       <c r="D283">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E283" t="s">
         <v>5</v>
@@ -5262,13 +5262,13 @@
         <v>2023</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C284">
-        <v>1440</v>
+        <v>829</v>
       </c>
       <c r="D284">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E284" t="s">
         <v>5</v>
@@ -5279,13 +5279,13 @@
         <v>2023</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C285">
-        <v>1488</v>
+        <v>938</v>
       </c>
       <c r="D285">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E285" t="s">
         <v>5</v>
@@ -5296,13 +5296,13 @@
         <v>2023</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C286">
-        <v>745</v>
+        <v>831</v>
       </c>
       <c r="D286">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E286" t="s">
         <v>5</v>
@@ -5313,13 +5313,13 @@
         <v>2023</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>640</v>
+        <v>2759</v>
       </c>
       <c r="D287">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E287" t="s">
         <v>5</v>
@@ -5330,13 +5330,13 @@
         <v>2023</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C288">
-        <v>1481</v>
+        <v>1020</v>
       </c>
       <c r="D288">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E288" t="s">
         <v>5</v>
@@ -5347,13 +5347,13 @@
         <v>2023</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>529</v>
+        <v>700</v>
       </c>
       <c r="D289">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E289" t="s">
         <v>5</v>
@@ -5361,70 +5361,70 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D290">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E290" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D291">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E291" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D292">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E292" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E293" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5432,13 +5432,13 @@
         <v>2000</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E294" t="s">
         <v>17</v>
@@ -5449,13 +5449,13 @@
         <v>2000</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C295">
         <v>0</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E295" t="s">
         <v>17</v>
@@ -5466,13 +5466,13 @@
         <v>2000</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C296">
         <v>0</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E296" t="s">
         <v>17</v>
@@ -5483,13 +5483,13 @@
         <v>2000</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="s">
         <v>17</v>
@@ -5500,7 +5500,7 @@
         <v>2000</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>2000</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>2000</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>2000</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -5565,16 +5565,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
       <c r="D302">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E302" t="s">
         <v>17</v>
@@ -5582,16 +5582,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
       <c r="D303">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E303" t="s">
         <v>17</v>
@@ -5599,16 +5599,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
       <c r="D304">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
@@ -5616,16 +5616,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B305" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
       <c r="D305">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E305" t="s">
         <v>17</v>
@@ -5636,13 +5636,13 @@
         <v>2001</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
       <c r="D306">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E306" t="s">
         <v>17</v>
@@ -5653,13 +5653,13 @@
         <v>2001</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
       <c r="D307">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E307" t="s">
         <v>17</v>
@@ -5670,13 +5670,13 @@
         <v>2001</v>
       </c>
       <c r="B308" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
@@ -5687,13 +5687,13 @@
         <v>2001</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
@@ -5704,13 +5704,13 @@
         <v>2001</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
       <c r="D310">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E310" t="s">
         <v>17</v>
@@ -5721,13 +5721,13 @@
         <v>2001</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E311" t="s">
         <v>17</v>
@@ -5738,13 +5738,13 @@
         <v>2001</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
@@ -5755,13 +5755,13 @@
         <v>2001</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
       <c r="D313">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B315" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E315" t="s">
         <v>17</v>
@@ -5803,16 +5803,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -5820,16 +5820,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C317">
         <v>0</v>
       </c>
       <c r="D317">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
@@ -5840,13 +5840,13 @@
         <v>2002</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
       <c r="D318">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E318" t="s">
         <v>17</v>
@@ -5857,13 +5857,13 @@
         <v>2002</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
       <c r="D319">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E319" t="s">
         <v>17</v>
@@ -5874,13 +5874,13 @@
         <v>2002</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
       <c r="D320">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E320" t="s">
         <v>17</v>
@@ -5891,13 +5891,13 @@
         <v>2002</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
       <c r="D321">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
@@ -5908,13 +5908,13 @@
         <v>2002</v>
       </c>
       <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
         <v>13</v>
-      </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-      <c r="D322">
-        <v>46</v>
       </c>
       <c r="E322" t="s">
         <v>17</v>
@@ -5925,13 +5925,13 @@
         <v>2002</v>
       </c>
       <c r="B323" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C323">
         <v>0</v>
       </c>
       <c r="D323">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="E323" t="s">
         <v>17</v>
@@ -5942,13 +5942,13 @@
         <v>2002</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C324">
         <v>0</v>
       </c>
       <c r="D324">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E324" t="s">
         <v>17</v>
@@ -5959,13 +5959,13 @@
         <v>2002</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
       <c r="D325">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
@@ -5973,16 +5973,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C326">
         <v>0</v>
       </c>
       <c r="D326">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E326" t="s">
         <v>17</v>
@@ -5990,16 +5990,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B327" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C327">
         <v>0</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="E327" t="s">
         <v>17</v>
@@ -6007,16 +6007,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B328" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
       <c r="D328">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
@@ -6024,16 +6024,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C329">
         <v>0</v>
       </c>
       <c r="D329">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
@@ -6044,13 +6044,13 @@
         <v>2003</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
       <c r="D330">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E330" t="s">
         <v>17</v>
@@ -6061,13 +6061,13 @@
         <v>2003</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
@@ -6078,13 +6078,13 @@
         <v>2003</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
       <c r="D332">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
@@ -6095,13 +6095,13 @@
         <v>2003</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C333">
         <v>0</v>
       </c>
       <c r="D333">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
@@ -6112,13 +6112,13 @@
         <v>2003</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E334" t="s">
         <v>17</v>
@@ -6129,13 +6129,13 @@
         <v>2003</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
       <c r="D335">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E335" t="s">
         <v>17</v>
@@ -6146,13 +6146,13 @@
         <v>2003</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
       <c r="D336">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E336" t="s">
         <v>17</v>
@@ -6163,13 +6163,13 @@
         <v>2003</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
       <c r="D337">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E337" t="s">
         <v>17</v>
@@ -6177,16 +6177,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E338" t="s">
         <v>17</v>
@@ -6194,16 +6194,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C339">
         <v>0</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E339" t="s">
         <v>17</v>
@@ -6211,16 +6211,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B340" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E340" t="s">
         <v>17</v>
@@ -6228,16 +6228,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B341" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
       <c r="D341">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E341" t="s">
         <v>17</v>
@@ -6248,13 +6248,13 @@
         <v>2004</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C342">
         <v>0</v>
       </c>
       <c r="D342">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E342" t="s">
         <v>17</v>
@@ -6265,13 +6265,13 @@
         <v>2004</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E343" t="s">
         <v>17</v>
@@ -6282,7 +6282,7 @@
         <v>2004</v>
       </c>
       <c r="B344" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -6299,13 +6299,13 @@
         <v>2004</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C345">
         <v>0</v>
       </c>
       <c r="D345">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E345" t="s">
         <v>17</v>
@@ -6316,13 +6316,13 @@
         <v>2004</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C346">
         <v>0</v>
       </c>
       <c r="D346">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -6333,13 +6333,13 @@
         <v>2004</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
       <c r="D347">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E347" t="s">
         <v>17</v>
@@ -6350,13 +6350,13 @@
         <v>2004</v>
       </c>
       <c r="B348" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C348">
         <v>0</v>
       </c>
       <c r="D348">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E348" t="s">
         <v>17</v>
@@ -6367,13 +6367,13 @@
         <v>2004</v>
       </c>
       <c r="B349" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
       <c r="D349">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E349" t="s">
         <v>17</v>
@@ -6381,16 +6381,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B350" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C350">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D350">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E350" t="s">
         <v>17</v>
@@ -6398,16 +6398,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C351">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E351" t="s">
         <v>17</v>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C352">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D352">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E352" t="s">
         <v>17</v>
@@ -6432,16 +6432,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C353">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E353" t="s">
         <v>17</v>
@@ -6452,13 +6452,13 @@
         <v>2005</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C354">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E354" t="s">
         <v>17</v>
@@ -6469,13 +6469,13 @@
         <v>2005</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C355">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D355">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>17</v>
@@ -6486,13 +6486,13 @@
         <v>2005</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C356">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D356">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E356" t="s">
         <v>17</v>
@@ -6503,10 +6503,10 @@
         <v>2005</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C357">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -6520,10 +6520,10 @@
         <v>2005</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C358">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -6537,13 +6537,13 @@
         <v>2005</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C359">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E359" t="s">
         <v>17</v>
@@ -6554,13 +6554,13 @@
         <v>2005</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C360">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D360">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E360" t="s">
         <v>17</v>
@@ -6571,13 +6571,13 @@
         <v>2005</v>
       </c>
       <c r="B361" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C361">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D361">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E361" t="s">
         <v>17</v>
@@ -6585,13 +6585,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C362">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -6602,13 +6602,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C363">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -6619,16 +6619,16 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C364">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E364" t="s">
         <v>17</v>
@@ -6636,16 +6636,16 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B365" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C365">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E365" t="s">
         <v>17</v>
@@ -6656,13 +6656,13 @@
         <v>2006</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C366">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" t="s">
         <v>17</v>
@@ -6673,13 +6673,13 @@
         <v>2006</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C367">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E367" t="s">
         <v>17</v>
@@ -6690,13 +6690,13 @@
         <v>2006</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C368">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E368" t="s">
         <v>17</v>
@@ -6707,13 +6707,13 @@
         <v>2006</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C369">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E369" t="s">
         <v>17</v>
@@ -6724,13 +6724,13 @@
         <v>2006</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C370">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D370">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E370" t="s">
         <v>17</v>
@@ -6741,13 +6741,13 @@
         <v>2006</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C371">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D371">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E371" t="s">
         <v>17</v>
@@ -6758,13 +6758,13 @@
         <v>2006</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C372">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E372" t="s">
         <v>17</v>
@@ -6775,10 +6775,10 @@
         <v>2006</v>
       </c>
       <c r="B373" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C373">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -6789,16 +6789,16 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B374" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C374">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D374">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E374" t="s">
         <v>17</v>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C375">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D375">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E375" t="s">
         <v>17</v>
@@ -6823,16 +6823,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C376">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E376" t="s">
         <v>17</v>
@@ -6840,13 +6840,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B377" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C377">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -6860,13 +6860,13 @@
         <v>2007</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C378">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E378" t="s">
         <v>17</v>
@@ -6877,10 +6877,10 @@
         <v>2007</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C379">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -6894,13 +6894,13 @@
         <v>2007</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C380">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E380" t="s">
         <v>17</v>
@@ -6911,13 +6911,13 @@
         <v>2007</v>
       </c>
       <c r="B381" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C381">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E381" t="s">
         <v>17</v>
@@ -6928,10 +6928,10 @@
         <v>2007</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C382">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -6945,13 +6945,13 @@
         <v>2007</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C383">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E383" t="s">
         <v>17</v>
@@ -6962,13 +6962,13 @@
         <v>2007</v>
       </c>
       <c r="B384" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C384">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384" t="s">
         <v>17</v>
@@ -6979,13 +6979,13 @@
         <v>2007</v>
       </c>
       <c r="B385" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C385">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D385">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E385" t="s">
         <v>17</v>
@@ -6993,16 +6993,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B386" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C386">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="D386">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E386" t="s">
         <v>17</v>
@@ -7010,13 +7010,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C387">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -7027,13 +7027,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C388">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -7044,16 +7044,16 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B389" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C389">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E389" t="s">
         <v>17</v>
@@ -7064,13 +7064,13 @@
         <v>2008</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C390">
-        <v>5</v>
+        <v>514</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E390" t="s">
         <v>17</v>
@@ -7081,13 +7081,13 @@
         <v>2008</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C391">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D391">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E391" t="s">
         <v>17</v>
@@ -7098,10 +7098,10 @@
         <v>2008</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C392">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -7115,13 +7115,13 @@
         <v>2008</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C393">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D393">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E393" t="s">
         <v>17</v>
@@ -7132,13 +7132,13 @@
         <v>2008</v>
       </c>
       <c r="B394" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C394">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D394">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E394" t="s">
         <v>17</v>
@@ -7149,13 +7149,13 @@
         <v>2008</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C395">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D395">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E395" t="s">
         <v>17</v>
@@ -7166,13 +7166,13 @@
         <v>2008</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C396">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E396" t="s">
         <v>17</v>
@@ -7183,13 +7183,13 @@
         <v>2008</v>
       </c>
       <c r="B397" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C397">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E397" t="s">
         <v>17</v>
@@ -7197,16 +7197,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B398" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C398">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E398" t="s">
         <v>17</v>
@@ -7214,16 +7214,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B399" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C399">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E399" t="s">
         <v>17</v>
@@ -7231,16 +7231,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C400">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D400">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E400" t="s">
         <v>17</v>
@@ -7248,16 +7248,16 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B401" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C401">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401" t="s">
         <v>17</v>
@@ -7268,13 +7268,13 @@
         <v>2009</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C402">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E402" t="s">
         <v>17</v>
@@ -7285,10 +7285,10 @@
         <v>2009</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -7302,10 +7302,10 @@
         <v>2009</v>
       </c>
       <c r="B404" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C404">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -7319,10 +7319,10 @@
         <v>2009</v>
       </c>
       <c r="B405" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405">
         <v>12</v>
-      </c>
-      <c r="C405">
-        <v>17</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -7336,13 +7336,13 @@
         <v>2009</v>
       </c>
       <c r="B406" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C406">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E406" t="s">
         <v>17</v>
@@ -7353,13 +7353,13 @@
         <v>2009</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C407">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E407" t="s">
         <v>17</v>
@@ -7370,13 +7370,13 @@
         <v>2009</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C408">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E408" t="s">
         <v>17</v>
@@ -7387,13 +7387,13 @@
         <v>2009</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C409">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D409">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E409" t="s">
         <v>17</v>
@@ -7401,16 +7401,16 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C410">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410" t="s">
         <v>17</v>
@@ -7418,16 +7418,16 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B411" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C411">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E411" t="s">
         <v>17</v>
@@ -7435,16 +7435,16 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C412">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E412" t="s">
         <v>17</v>
@@ -7452,16 +7452,16 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B413" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C413">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E413" t="s">
         <v>17</v>
@@ -7472,13 +7472,13 @@
         <v>2010</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C414">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D414">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E414" t="s">
         <v>17</v>
@@ -7489,10 +7489,10 @@
         <v>2010</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C415">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -7506,13 +7506,13 @@
         <v>2010</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C416">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416" t="s">
         <v>17</v>
@@ -7523,10 +7523,10 @@
         <v>2010</v>
       </c>
       <c r="B417" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417">
         <v>12</v>
-      </c>
-      <c r="C417">
-        <v>17</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -7540,13 +7540,13 @@
         <v>2010</v>
       </c>
       <c r="B418" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C418">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E418" t="s">
         <v>17</v>
@@ -7557,13 +7557,13 @@
         <v>2010</v>
       </c>
       <c r="B419" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C419">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E419" t="s">
         <v>17</v>
@@ -7574,10 +7574,10 @@
         <v>2010</v>
       </c>
       <c r="B420" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C420">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -7591,10 +7591,10 @@
         <v>2010</v>
       </c>
       <c r="B421" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C421">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -7605,13 +7605,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C422">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -7622,16 +7622,16 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B423" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C423">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E423" t="s">
         <v>17</v>
@@ -7639,13 +7639,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B424" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C424">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -7656,16 +7656,16 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B425" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C425">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E425" t="s">
         <v>17</v>
@@ -7676,13 +7676,13 @@
         <v>2011</v>
       </c>
       <c r="B426" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C426">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E426" t="s">
         <v>17</v>
@@ -7693,10 +7693,10 @@
         <v>2011</v>
       </c>
       <c r="B427" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>2011</v>
       </c>
       <c r="B428" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C428">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428" t="s">
         <v>17</v>
@@ -7727,13 +7727,13 @@
         <v>2011</v>
       </c>
       <c r="B429" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C429">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E429" t="s">
         <v>17</v>
@@ -7744,13 +7744,13 @@
         <v>2011</v>
       </c>
       <c r="B430" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C430">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E430" t="s">
         <v>17</v>
@@ -7761,13 +7761,13 @@
         <v>2011</v>
       </c>
       <c r="B431" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C431">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D431">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E431" t="s">
         <v>17</v>
@@ -7778,10 +7778,10 @@
         <v>2011</v>
       </c>
       <c r="B432" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>2011</v>
       </c>
       <c r="B433" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C433">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B434" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C434">
         <v>8</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E434" t="s">
         <v>17</v>
@@ -7826,16 +7826,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B435" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C435">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="D435">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E435" t="s">
         <v>17</v>
@@ -7843,13 +7843,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B436" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C436">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -7860,13 +7860,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B437" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C437">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -7880,10 +7880,10 @@
         <v>2012</v>
       </c>
       <c r="B438" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C438">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>2012</v>
       </c>
       <c r="B439" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C439">
-        <v>12</v>
+        <v>470</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E439" t="s">
         <v>17</v>
@@ -7914,13 +7914,13 @@
         <v>2012</v>
       </c>
       <c r="B440" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C440">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E440" t="s">
         <v>17</v>
@@ -7931,10 +7931,10 @@
         <v>2012</v>
       </c>
       <c r="B441" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C441">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -7948,10 +7948,10 @@
         <v>2012</v>
       </c>
       <c r="B442" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C442">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>2012</v>
       </c>
       <c r="B443" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C443">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -7982,13 +7982,13 @@
         <v>2012</v>
       </c>
       <c r="B444" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C444">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E444" t="s">
         <v>17</v>
@@ -7999,10 +7999,10 @@
         <v>2012</v>
       </c>
       <c r="B445" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -8013,16 +8013,16 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B446" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C446">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E446" t="s">
         <v>17</v>
@@ -8030,16 +8030,16 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B447" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C447">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E447" t="s">
         <v>17</v>
@@ -8047,16 +8047,16 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B448" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C448">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E448" t="s">
         <v>17</v>
@@ -8064,16 +8064,16 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B449" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C449">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D449">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E449" t="s">
         <v>17</v>
@@ -8084,13 +8084,13 @@
         <v>2013</v>
       </c>
       <c r="B450" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C450">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450" t="s">
         <v>17</v>
@@ -8101,13 +8101,13 @@
         <v>2013</v>
       </c>
       <c r="B451" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C451">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E451" t="s">
         <v>17</v>
@@ -8118,13 +8118,13 @@
         <v>2013</v>
       </c>
       <c r="B452" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C452">
+        <v>15</v>
+      </c>
+      <c r="D452">
         <v>1</v>
-      </c>
-      <c r="D452">
-        <v>0</v>
       </c>
       <c r="E452" t="s">
         <v>17</v>
@@ -8135,13 +8135,13 @@
         <v>2013</v>
       </c>
       <c r="B453" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C453">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E453" t="s">
         <v>17</v>
@@ -8152,13 +8152,13 @@
         <v>2013</v>
       </c>
       <c r="B454" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C454">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E454" t="s">
         <v>17</v>
@@ -8169,10 +8169,10 @@
         <v>2013</v>
       </c>
       <c r="B455" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C455">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>2013</v>
       </c>
       <c r="B456" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C456">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -8203,10 +8203,10 @@
         <v>2013</v>
       </c>
       <c r="B457" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C457">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -8217,16 +8217,16 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B458" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C458">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E458" t="s">
         <v>17</v>
@@ -8234,16 +8234,16 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B459" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C459">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D459">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E459" t="s">
         <v>17</v>
@@ -8251,16 +8251,16 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B460" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C460">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D460">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E460" t="s">
         <v>17</v>
@@ -8268,13 +8268,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B461" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C461">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -8288,13 +8288,13 @@
         <v>2014</v>
       </c>
       <c r="B462" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C462">
-        <v>865</v>
+        <v>15</v>
       </c>
       <c r="D462">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E462" t="s">
         <v>17</v>
@@ -8305,13 +8305,13 @@
         <v>2014</v>
       </c>
       <c r="B463" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C463">
-        <v>1650</v>
+        <v>55</v>
       </c>
       <c r="D463">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E463" t="s">
         <v>17</v>
@@ -8322,13 +8322,13 @@
         <v>2014</v>
       </c>
       <c r="B464" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C464">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E464" t="s">
         <v>17</v>
@@ -8339,10 +8339,10 @@
         <v>2014</v>
       </c>
       <c r="B465" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C465">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -8356,13 +8356,13 @@
         <v>2014</v>
       </c>
       <c r="B466" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C466">
-        <v>16</v>
+        <v>865</v>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E466" t="s">
         <v>17</v>
@@ -8373,13 +8373,13 @@
         <v>2014</v>
       </c>
       <c r="B467" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C467">
-        <v>5</v>
+        <v>1650</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E467" t="s">
         <v>17</v>
@@ -8390,13 +8390,13 @@
         <v>2014</v>
       </c>
       <c r="B468" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C468">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D468">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E468" t="s">
         <v>17</v>
@@ -8407,10 +8407,10 @@
         <v>2014</v>
       </c>
       <c r="B469" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C469">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -8421,16 +8421,16 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B470" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C470">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E470" t="s">
         <v>17</v>
@@ -8438,16 +8438,16 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B471" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C471">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D471">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E471" t="s">
         <v>17</v>
@@ -8455,16 +8455,16 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B472" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C472">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D472">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E472" t="s">
         <v>17</v>
@@ -8472,16 +8472,16 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B473" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C473">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E473" t="s">
         <v>17</v>
@@ -8492,13 +8492,13 @@
         <v>2015</v>
       </c>
       <c r="B474" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C474">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E474" t="s">
         <v>17</v>
@@ -8509,13 +8509,13 @@
         <v>2015</v>
       </c>
       <c r="B475" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C475">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E475" t="s">
         <v>17</v>
@@ -8526,13 +8526,13 @@
         <v>2015</v>
       </c>
       <c r="B476" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C476">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E476" t="s">
         <v>17</v>
@@ -8543,13 +8543,13 @@
         <v>2015</v>
       </c>
       <c r="B477" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C477">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E477" t="s">
         <v>17</v>
@@ -8560,13 +8560,13 @@
         <v>2015</v>
       </c>
       <c r="B478" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C478">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E478" t="s">
         <v>17</v>
@@ -8577,10 +8577,10 @@
         <v>2015</v>
       </c>
       <c r="B479" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C479">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -8594,13 +8594,13 @@
         <v>2015</v>
       </c>
       <c r="B480" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C480">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E480" t="s">
         <v>17</v>
@@ -8611,10 +8611,10 @@
         <v>2015</v>
       </c>
       <c r="B481" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C481">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -8625,16 +8625,16 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B482" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C482">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482" t="s">
         <v>17</v>
@@ -8642,13 +8642,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B483" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C483">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -8659,16 +8659,16 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B484" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C484">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D484">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E484" t="s">
         <v>17</v>
@@ -8676,13 +8676,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B485" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C485">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>2016</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C486">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -8713,13 +8713,13 @@
         <v>2016</v>
       </c>
       <c r="B487" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C487">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E487" t="s">
         <v>17</v>
@@ -8730,13 +8730,13 @@
         <v>2016</v>
       </c>
       <c r="B488" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C488">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D488">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E488" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>2016</v>
       </c>
       <c r="B489" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C489">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -8764,10 +8764,10 @@
         <v>2016</v>
       </c>
       <c r="B490" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C490">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>2016</v>
       </c>
       <c r="B491" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C491">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E491" t="s">
         <v>17</v>
@@ -8798,13 +8798,13 @@
         <v>2016</v>
       </c>
       <c r="B492" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C492">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D492">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E492" t="s">
         <v>17</v>
@@ -8815,13 +8815,13 @@
         <v>2016</v>
       </c>
       <c r="B493" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C493">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D493">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E493" t="s">
         <v>17</v>
@@ -8829,16 +8829,16 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B494" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C494">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494" t="s">
         <v>17</v>
@@ -8846,13 +8846,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B495" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C495">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -8863,16 +8863,16 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B496" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C496">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E496" t="s">
         <v>17</v>
@@ -8880,16 +8880,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B497" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C497">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D497">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E497" t="s">
         <v>17</v>
@@ -8900,13 +8900,13 @@
         <v>2017</v>
       </c>
       <c r="B498" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C498">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E498" t="s">
         <v>17</v>
@@ -8917,13 +8917,13 @@
         <v>2017</v>
       </c>
       <c r="B499" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C499">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D499">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E499" t="s">
         <v>17</v>
@@ -8934,10 +8934,10 @@
         <v>2017</v>
       </c>
       <c r="B500" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C500">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -8951,13 +8951,13 @@
         <v>2017</v>
       </c>
       <c r="B501" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C501">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E501" t="s">
         <v>17</v>
@@ -8968,13 +8968,13 @@
         <v>2017</v>
       </c>
       <c r="B502" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C502">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E502" t="s">
         <v>17</v>
@@ -8985,13 +8985,13 @@
         <v>2017</v>
       </c>
       <c r="B503" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C503">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E503" t="s">
         <v>17</v>
@@ -9002,13 +9002,13 @@
         <v>2017</v>
       </c>
       <c r="B504" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C504">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E504" t="s">
         <v>17</v>
@@ -9019,13 +9019,13 @@
         <v>2017</v>
       </c>
       <c r="B505" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C505">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D505">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E505" t="s">
         <v>17</v>
@@ -9033,16 +9033,16 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B506" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C506">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E506" t="s">
         <v>17</v>
@@ -9050,13 +9050,13 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B507" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C507">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -9067,16 +9067,16 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B508" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C508">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D508">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E508" t="s">
         <v>17</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B509" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C509">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E509" t="s">
         <v>17</v>
@@ -9104,13 +9104,13 @@
         <v>2018</v>
       </c>
       <c r="B510" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C510">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E510" t="s">
         <v>17</v>
@@ -9121,13 +9121,13 @@
         <v>2018</v>
       </c>
       <c r="B511" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C511">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D511">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E511" t="s">
         <v>17</v>
@@ -9138,13 +9138,13 @@
         <v>2018</v>
       </c>
       <c r="B512" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C512">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E512" t="s">
         <v>17</v>
@@ -9155,10 +9155,10 @@
         <v>2018</v>
       </c>
       <c r="B513" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C513">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -9172,10 +9172,10 @@
         <v>2018</v>
       </c>
       <c r="B514" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C514">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -9189,13 +9189,13 @@
         <v>2018</v>
       </c>
       <c r="B515" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C515">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E515" t="s">
         <v>17</v>
@@ -9206,13 +9206,13 @@
         <v>2018</v>
       </c>
       <c r="B516" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C516">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E516" t="s">
         <v>17</v>
@@ -9223,10 +9223,10 @@
         <v>2018</v>
       </c>
       <c r="B517" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C517">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -9237,13 +9237,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B518" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B519" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C519">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E519" t="s">
         <v>17</v>
@@ -9271,16 +9271,16 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B520" t="s">
+        <v>15</v>
+      </c>
+      <c r="C520">
         <v>7</v>
       </c>
-      <c r="C520">
-        <v>3</v>
-      </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520" t="s">
         <v>17</v>
@@ -9288,16 +9288,16 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B521" t="s">
+        <v>16</v>
+      </c>
+      <c r="C521">
         <v>8</v>
       </c>
-      <c r="C521">
-        <v>4</v>
-      </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521" t="s">
         <v>17</v>
@@ -9308,13 +9308,13 @@
         <v>2019</v>
       </c>
       <c r="B522" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C522">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D522">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E522" t="s">
         <v>17</v>
@@ -9325,13 +9325,13 @@
         <v>2019</v>
       </c>
       <c r="B523" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C523">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523" t="s">
         <v>17</v>
@@ -9342,10 +9342,10 @@
         <v>2019</v>
       </c>
       <c r="B524" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C524">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -9359,13 +9359,13 @@
         <v>2019</v>
       </c>
       <c r="B525" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C525">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D525">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E525" t="s">
         <v>17</v>
@@ -9376,13 +9376,13 @@
         <v>2019</v>
       </c>
       <c r="B526" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526">
         <v>13</v>
       </c>
-      <c r="C526">
+      <c r="D526">
         <v>2</v>
-      </c>
-      <c r="D526">
-        <v>0</v>
       </c>
       <c r="E526" t="s">
         <v>17</v>
@@ -9393,13 +9393,13 @@
         <v>2019</v>
       </c>
       <c r="B527" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C527">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D527">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E527" t="s">
         <v>17</v>
@@ -9410,13 +9410,13 @@
         <v>2019</v>
       </c>
       <c r="B528" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C528">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E528" t="s">
         <v>17</v>
@@ -9427,13 +9427,13 @@
         <v>2019</v>
       </c>
       <c r="B529" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C529">
+        <v>14</v>
+      </c>
+      <c r="D529">
         <v>4</v>
-      </c>
-      <c r="D529">
-        <v>2</v>
       </c>
       <c r="E529" t="s">
         <v>17</v>
@@ -9441,16 +9441,16 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B530" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C530">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E530" t="s">
         <v>17</v>
@@ -9458,16 +9458,16 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B531" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C531">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E531" t="s">
         <v>17</v>
@@ -9475,16 +9475,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B532" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C532">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532" t="s">
         <v>17</v>
@@ -9492,16 +9492,16 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B533" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C533">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E533" t="s">
         <v>17</v>
@@ -9512,10 +9512,10 @@
         <v>2020</v>
       </c>
       <c r="B534" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C534">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -9529,10 +9529,10 @@
         <v>2020</v>
       </c>
       <c r="B535" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C535">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -9546,7 +9546,7 @@
         <v>2020</v>
       </c>
       <c r="B536" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C536">
         <v>4</v>
@@ -9563,13 +9563,13 @@
         <v>2020</v>
       </c>
       <c r="B537" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537">
         <v>12</v>
       </c>
-      <c r="C537">
-        <v>2</v>
-      </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537" t="s">
         <v>17</v>
@@ -9580,13 +9580,13 @@
         <v>2020</v>
       </c>
       <c r="B538" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C538">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538" t="s">
         <v>17</v>
@@ -9597,10 +9597,10 @@
         <v>2020</v>
       </c>
       <c r="B539" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C539">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D539">
         <v>0</v>
@@ -9614,10 +9614,10 @@
         <v>2020</v>
       </c>
       <c r="B540" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C540">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -9631,13 +9631,13 @@
         <v>2020</v>
       </c>
       <c r="B541" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C541">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E541" t="s">
         <v>17</v>
@@ -9645,16 +9645,16 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B542" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C542">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E542" t="s">
         <v>17</v>
@@ -9662,16 +9662,16 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B543" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C543">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E543" t="s">
         <v>17</v>
@@ -9679,13 +9679,13 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B544" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C544">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D544">
         <v>0</v>
@@ -9696,13 +9696,13 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B545" t="s">
+        <v>16</v>
+      </c>
+      <c r="C545">
         <v>8</v>
-      </c>
-      <c r="C545">
-        <v>7</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>2021</v>
       </c>
       <c r="B546" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C546">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D546">
         <v>1</v>
@@ -9733,13 +9733,13 @@
         <v>2021</v>
       </c>
       <c r="B547" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C547">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E547" t="s">
         <v>17</v>
@@ -9750,10 +9750,10 @@
         <v>2021</v>
       </c>
       <c r="B548" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C548">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -9767,13 +9767,13 @@
         <v>2021</v>
       </c>
       <c r="B549" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C549">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D549">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E549" t="s">
         <v>17</v>
@@ -9784,13 +9784,13 @@
         <v>2021</v>
       </c>
       <c r="B550" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C550">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D550">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E550" t="s">
         <v>17</v>
@@ -9801,10 +9801,10 @@
         <v>2021</v>
       </c>
       <c r="B551" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551">
         <v>14</v>
-      </c>
-      <c r="C551">
-        <v>7</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         <v>2021</v>
       </c>
       <c r="B552" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C552">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -9835,13 +9835,13 @@
         <v>2021</v>
       </c>
       <c r="B553" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C553">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D553">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E553" t="s">
         <v>17</v>
@@ -9849,13 +9849,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B554" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C554">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -9866,16 +9866,16 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B555" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C555">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D555">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E555" t="s">
         <v>17</v>
@@ -9883,16 +9883,16 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B556" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C556">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D556">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E556" t="s">
         <v>17</v>
@@ -9900,16 +9900,16 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B557" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C557">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E557" t="s">
         <v>17</v>
@@ -9920,10 +9920,10 @@
         <v>2022</v>
       </c>
       <c r="B558" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C558">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -9937,13 +9937,13 @@
         <v>2022</v>
       </c>
       <c r="B559" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C559">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D559">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E559" t="s">
         <v>17</v>
@@ -9954,13 +9954,13 @@
         <v>2022</v>
       </c>
       <c r="B560" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C560">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E560" t="s">
         <v>17</v>
@@ -9971,13 +9971,13 @@
         <v>2022</v>
       </c>
       <c r="B561" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C561">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D561">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E561" t="s">
         <v>17</v>
@@ -9988,13 +9988,13 @@
         <v>2022</v>
       </c>
       <c r="B562" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C562">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D562">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E562" t="s">
         <v>17</v>
@@ -10005,13 +10005,13 @@
         <v>2022</v>
       </c>
       <c r="B563" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C563">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D563">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E563" t="s">
         <v>17</v>
@@ -10022,10 +10022,10 @@
         <v>2022</v>
       </c>
       <c r="B564" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C564">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D564">
         <v>0</v>
@@ -10039,13 +10039,13 @@
         <v>2022</v>
       </c>
       <c r="B565" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C565">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E565" t="s">
         <v>17</v>
@@ -10053,16 +10053,16 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B566" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D566">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E566" t="s">
         <v>17</v>
@@ -10070,16 +10070,16 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B567" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C567">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E567" t="s">
         <v>17</v>
@@ -10087,16 +10087,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B568" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C568">
-        <v>5007</v>
+        <v>9</v>
       </c>
       <c r="D568">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E568" t="s">
         <v>17</v>
@@ -10104,10 +10104,10 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B569" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C569">
         <v>8</v>
@@ -10124,13 +10124,13 @@
         <v>2023</v>
       </c>
       <c r="B570" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C570">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D570">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E570" t="s">
         <v>17</v>
@@ -10141,13 +10141,13 @@
         <v>2023</v>
       </c>
       <c r="B571" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C571">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E571" t="s">
         <v>17</v>
@@ -10158,13 +10158,13 @@
         <v>2023</v>
       </c>
       <c r="B572" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C572">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D572">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E572" t="s">
         <v>17</v>
@@ -10175,13 +10175,13 @@
         <v>2023</v>
       </c>
       <c r="B573" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C573">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D573">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E573" t="s">
         <v>17</v>
@@ -10192,13 +10192,13 @@
         <v>2023</v>
       </c>
       <c r="B574" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C574">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D574">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E574" t="s">
         <v>17</v>
@@ -10209,10 +10209,10 @@
         <v>2023</v>
       </c>
       <c r="B575" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C575">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D575">
         <v>1</v>
@@ -10226,13 +10226,13 @@
         <v>2023</v>
       </c>
       <c r="B576" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C576">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D576">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E576" t="s">
         <v>17</v>
@@ -10243,15 +10243,151 @@
         <v>2023</v>
       </c>
       <c r="B577" t="s">
+        <v>12</v>
+      </c>
+      <c r="C577">
+        <v>57</v>
+      </c>
+      <c r="D577">
+        <v>2</v>
+      </c>
+      <c r="E577" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>2023</v>
+      </c>
+      <c r="B578" t="s">
+        <v>13</v>
+      </c>
+      <c r="C578">
+        <v>15</v>
+      </c>
+      <c r="D578">
+        <v>3</v>
+      </c>
+      <c r="E578" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2023</v>
+      </c>
+      <c r="B579" t="s">
+        <v>14</v>
+      </c>
+      <c r="C579">
+        <v>10</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>2023</v>
+      </c>
+      <c r="B580" t="s">
+        <v>15</v>
+      </c>
+      <c r="C580">
+        <v>24</v>
+      </c>
+      <c r="D580">
+        <v>8</v>
+      </c>
+      <c r="E580" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>2023</v>
+      </c>
+      <c r="B581" t="s">
         <v>16</v>
       </c>
-      <c r="C577">
+      <c r="C581">
         <v>11</v>
       </c>
-      <c r="D577">
+      <c r="D581">
         <v>6</v>
       </c>
-      <c r="E577" t="s">
+      <c r="E581" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>2024</v>
+      </c>
+      <c r="B582" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582">
+        <v>21</v>
+      </c>
+      <c r="D582">
+        <v>2</v>
+      </c>
+      <c r="E582" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>2024</v>
+      </c>
+      <c r="B583" t="s">
+        <v>15</v>
+      </c>
+      <c r="C583">
+        <v>12</v>
+      </c>
+      <c r="D583">
+        <v>5</v>
+      </c>
+      <c r="E583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>2024</v>
+      </c>
+      <c r="B584" t="s">
+        <v>14</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>2024</v>
+      </c>
+      <c r="B585" t="s">
+        <v>13</v>
+      </c>
+      <c r="C585">
+        <v>6</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585" t="s">
         <v>17</v>
       </c>
     </row>
